--- a/Result/LSTM Multi/Manufacturing/IND.xlsx
+++ b/Result/LSTM Multi/Manufacturing/IND.xlsx
@@ -716,7 +716,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>16.0184211730957</v>
+        <v>16.00699996948242</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -724,7 +724,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>16.01837158203125</v>
+        <v>16.0059700012207</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -732,7 +732,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>16.01760482788086</v>
+        <v>16.00703811645508</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -740,7 +740,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>16.02216720581055</v>
+        <v>16.02276992797852</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -748,7 +748,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>16.03568649291992</v>
+        <v>16.04391479492188</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1134,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>15.99917507171631</v>
+        <v>15.98311996459961</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>16.02184104919434</v>
+        <v>15.99784278869629</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>16.01705932617188</v>
+        <v>16.00751304626465</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>16.01922798156738</v>
+        <v>16.02149772644043</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>16.03300476074219</v>
+        <v>16.04158020019531</v>
       </c>
     </row>
   </sheetData>
